--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_019.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_019.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Station blackout</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295027EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Hydrogen recombiners</t>
+  </si>
+  <si>
     <t xml:space="preserve">(295037EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Systems used for alternate boron injection </t>
   </si>
   <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295038EK2.03) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(295005AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Realignment of electrical distribution</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295018AA1.05) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor recirculation system</t>
-  </si>
-  <si>
-    <t>(295026EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) RCIC</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295001AK2.04) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295030EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) HPCI shutdown</t>
-  </si>
-  <si>
-    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295023AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Fuel positioning</t>
-  </si>
-  <si>
-    <t>(295006AA1.06) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) CRD hydraulic system</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295027EK2.05) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Safety relief valves</t>
-  </si>
-  <si>
-    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
+    <t>(295005AK2.04) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Main turbine generator and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
+  </si>
+  <si>
+    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295001AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reduced loop operating requirements</t>
+  </si>
+  <si>
+    <t>(295031EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Low-pressure coolant injection (RHR)</t>
+  </si>
+  <si>
+    <t>(295025EK2.02) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Isolation condenser (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
+  </si>
+  <si>
+    <t>(295018AA2.03) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss</t>
+  </si>
+  <si>
+    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
+  </si>
+  <si>
+    <t>(295021AA1.07) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup</t>
+  </si>
+  <si>
+    <t>(295016AK2.14) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Cooling water systems</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
   </si>
   <si>
-    <t>(700000AA1.04) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Reactor controls</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295022AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Closing flow control valve</t>
-  </si>
-  <si>
-    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
-  </si>
-  <si>
-    <t>(500000EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Drywell nitrogen purge</t>
-  </si>
-  <si>
-    <t>(295029EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) HPCI</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295034EK2.04) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(209001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Abnormal differential pressure indication (leak detection)</t>
+    <t>(295022AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Swapping/bypassing filter</t>
+  </si>
+  <si>
+    <t>(295036EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Equipment and floor drain sumps and pumps</t>
+  </si>
+  <si>
+    <t>(295009AK2.06) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295012AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.8 to 41.10) Drywell pressure </t>
+  </si>
+  <si>
+    <t>(295014AA2.06) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cold water injection</t>
+  </si>
+  <si>
+    <t>(217000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Flow control</t>
   </si>
   <si>
     <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
   </si>
   <si>
-    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
-  </si>
-  <si>
-    <t>(215005A2.06) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels upscale</t>
-  </si>
-  <si>
-    <t>(217000K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Turbine control failure</t>
-  </si>
-  <si>
-    <t>(510000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Service water temperatures</t>
-  </si>
-  <si>
-    <t>(239002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrument system</t>
-  </si>
-  <si>
-    <t>(263000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Systems with DC components (e.g., valves, motors, solenoids, instruments)</t>
-  </si>
-  <si>
-    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
-  </si>
-  <si>
-    <t>(300000K4.03) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Compressor automatic starts/trips</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (291001K1.03) VALVES (CFR: 41.3) The relationship of valve position to flow rate and back pressure</t>
-  </si>
-  <si>
-    <t>(215003K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Changing detector position</t>
-  </si>
-  <si>
-    <t>(261000A4.09) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SGTS valves/dampers</t>
-  </si>
-  <si>
-    <t>(259002A3.01) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Runout flow control</t>
-  </si>
-  <si>
-    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
-  </si>
-  <si>
-    <t>(203000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Keep fill</t>
-  </si>
-  <si>
-    <t>(223002A1.12) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(211000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection system</t>
-  </si>
-  <si>
-    <t>(212000K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Process radiation monitoring</t>
-  </si>
-  <si>
-    <t>(264000K2.06) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery charger</t>
-  </si>
-  <si>
-    <t>(209002K4.07) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Override of reactor water level interlock</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(209001K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Heat removal (transfer) mechanisms</t>
-  </si>
-  <si>
-    <t>(400000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(259001K2.03) (SF2 FWS) FEEDWATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RFP auxiliary oil pumps</t>
-  </si>
-  <si>
-    <t>(216000K4.11) Knowledge of (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION design features and/or interlocks that provide for the following: (CFR: 41.7) Inputs to the redundant reactivity control system/alternate rod insertion</t>
-  </si>
-  <si>
-    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (291001K1.09) VALVES (CFR: 41.3) The stroke test for a valve, including the use of a stopwatch</t>
-  </si>
-  <si>
-    <t>(290002K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Safety limits</t>
-  </si>
-  <si>
-    <t>(202002A4.10) Ability to manually operate and/or monitor the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Flow control valve</t>
-  </si>
-  <si>
-    <t>(234000A3.02) Ability to monitor automatic operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.7 / 45.7) Interlock operation</t>
-  </si>
-  <si>
-    <t>(233000A2.11) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Fuel pool gate seal high flow</t>
-  </si>
-  <si>
-    <t>(204000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.7 / 45.7) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(223001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.5 / 45.5) Containment temperature</t>
-  </si>
-  <si>
-    <t>(230000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(286000K3.09) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution systems</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(292003K1.07) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain prompt critical, prompt jump, and prompt drop</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(293007K1.06) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Discuss the factors that affect heat transfer rate in</t>
-  </si>
-  <si>
-    <t>(293008K1.20) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define carryunder</t>
+    <t>(259002A2.09) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) FWCI system failure alarm</t>
+  </si>
+  <si>
+    <t>(223002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(215004K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RMCS (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(239002K4.05) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Allows for SRV operation from more than one location</t>
+  </si>
+  <si>
+    <t>(300000K3.07) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Condensate system</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(264000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Gas generator speed</t>
+  </si>
+  <si>
+    <t>(215003A3.03) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) SCRAM signals</t>
+  </si>
+  <si>
+    <t>(203000K2.03) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(218000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
+  </si>
+  <si>
+    <t>(205000A2.01) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Recirculation loop high temperature</t>
+  </si>
+  <si>
+    <t>(510000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Loss of AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(262001K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Offsite power system</t>
+  </si>
+  <si>
+    <t>(261000K4.02) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Charcoal bed decay heat removal</t>
+  </si>
+  <si>
+    <t>(209002K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291004K1.13) PUMPS (CFR: 41.3) (CENTRIFUGAL) Theory of operation of a centrifugal pump</t>
+  </si>
+  <si>
+    <t>(262002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Motor generator outputs</t>
+  </si>
+  <si>
+    <t>(211000A3.09) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(209001K2.01) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(217000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Reactor level control</t>
+  </si>
+  <si>
+    <t>(400000K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Reactor feedwater system</t>
+  </si>
+  <si>
+    <t>(259002A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Receipt of an ECCS initiation signal: FWCI</t>
+  </si>
+  <si>
+    <t>(223002K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Plant pneumatic systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(241000A3.11) Ability to monitor automatic operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.7 / 45.7) Combined intermediate valve operation </t>
+  </si>
+  <si>
+    <t>(290003K2.04) (SF9 CRV) CONTROL ROOM VENTILATION Knowledge of electrical power supplies to the following: (CFR: 41.7) Control room HVAC logic</t>
+  </si>
+  <si>
+    <t>(510001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pump suction low level</t>
+  </si>
+  <si>
+    <t>(201001A4.01) Ability to manually operate and/or monitor the (SF1 CRDH) CRD HYDRAULIC SYSTEM in the control room: (CFR: 41.5-7 / 41.9 / 41.10 / 45.1-6 / 45.8 / 45.12-13) CRD pumps</t>
+  </si>
+  <si>
+    <t>(226001A2.03) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(268000A2.05) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal primary containment sump pump run time</t>
+  </si>
+  <si>
+    <t>(219000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(290001K4.02) Knowledge of (SF5 SC) SECONDARY CONTAINMENT design features and/or interlocks that provide for the following: (CFR: 41.7) Protection against overpressurization</t>
+  </si>
+  <si>
+    <t>(202001K3.06) Knowledge of the effect that a loss or malfunction of the (SF1, SF4 RS) RECIRCULATION SYSTEM will have on the following systems or system parameters: (CFR: 41.5 to 41.7 / 45.4) Residual heat removal/low-pressure coolant injection logic</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(202002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Recirculation loop flow</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
+  </si>
+  <si>
+    <t>(292008K1.12) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Describe reactor power and period response prior to reaching the POAH</t>
+  </si>
+  <si>
+    <t>(292005K1.07) CONTROL RODS (CFR: 41.1) Define control rod worth, differential CRW, and integral control rod worth</t>
   </si>
   <si>
     <t>(293004K1.13) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain vacuum formation in condenser processes</t>
   </si>
   <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+    <t>(293008K1.36) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Describe means by which the operator can determine if natural circulation flow exists</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
   </si>
   <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295014AA2.06) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cold water injection</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(217000A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(239002A2.01) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open vacuum breakers</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(202001A2.24) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve opening due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(219000A2.05) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical failures</t>
-  </si>
-  <si>
-    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295029EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(239002A2.05) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor pressure</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(215005A2.04) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SCRAM trip signals</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(201005A2.13) Ability to (a) predict the impacts of the following on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6 / 45.8) Rod drift</t>
+  </si>
+  <si>
+    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(288000A2.07) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295003</t>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>700000</t>
   </si>
   <si>
     <t>295038</t>
   </si>
   <si>
-    <t>295005</t>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295031</t>
   </si>
   <si>
     <t>295025</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295026</t>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295021</t>
   </si>
   <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
     <t>600000</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>295022</t>
   </si>
   <si>
     <t>295036</t>
   </si>
   <si>
-    <t>500000</t>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295013</t>
   </si>
   <si>
     <t>295029</t>
   </si>
   <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>204000</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>201005</t>
   </si>
   <si>
     <t>223001</t>
   </si>
   <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>219000</t>
+    <t>288000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D31" t="s">
         <v>113</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1650,7 +1650,7 @@
         <v>3.6</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D42" t="s">
         <v>113</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>114</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1752,7 +1752,7 @@
         <v>3.1</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D53" t="s">
         <v>113</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D59" t="s">
         <v>113</v>
@@ -1973,7 +1973,7 @@
         <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
         <v>114</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2279,7 +2279,7 @@
         <v>4.1</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2296,7 +2296,7 @@
         <v>3.8</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
